--- a/ResultadoEleicoesDistritos/PORTO_PENAFIEL.xlsx
+++ b/ResultadoEleicoesDistritos/PORTO_PENAFIEL.xlsx
@@ -597,64 +597,64 @@
         <v>18671</v>
       </c>
       <c r="H2" t="n">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="I2" t="n">
-        <v>1858</v>
+        <v>1830</v>
       </c>
       <c r="J2" t="n">
-        <v>7707</v>
+        <v>7792</v>
       </c>
       <c r="K2" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="L2" t="n">
-        <v>2088</v>
+        <v>2145</v>
       </c>
       <c r="M2" t="n">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="N2" t="n">
-        <v>1311</v>
+        <v>1356</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="R2" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S2" t="n">
-        <v>885</v>
+        <v>788</v>
       </c>
       <c r="T2" t="n">
-        <v>1378</v>
+        <v>1468</v>
       </c>
       <c r="U2" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>12027</v>
+        <v>11956</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>11808</v>
+        <v>11738</v>
       </c>
       <c r="Y2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="AA2" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
